--- a/oov_make_61.xlsx
+++ b/oov_make_61.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\115.145.170.122\public\08. Temporary folder\최윤석\ACM SAC 2021\OOV 데이터 생성\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/minsub/ACM_SAC/Context-Char-Transformer-Encoder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C927E8-7312-40EB-A3A8-D24293327FF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061FAD2C-2E87-AB47-94AB-B365A4E9A91F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32820" yWindow="5920" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="371">
   <si>
     <t>input_sent</t>
   </si>
@@ -1188,6 +1188,10 @@
   </si>
   <si>
     <t>Youtube</t>
+  </si>
+  <si>
+    <t>oov_sent</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1602,15 +1606,15 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
     <col min="3" max="3" width="51" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1621,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>2</v>
+        <v>370</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>2</v>
@@ -1630,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1698,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
@@ -1715,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>20</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
@@ -1766,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>28</v>
       </c>
@@ -1783,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="14" t="s">
         <v>34</v>
       </c>
@@ -1817,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>40</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>44</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="14" t="s">
         <v>46</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="14" t="s">
         <v>50</v>
       </c>
@@ -1902,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>56</v>
       </c>
@@ -1936,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="14" t="s">
         <v>58</v>
       </c>
@@ -1953,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>62</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>64</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="14" t="s">
         <v>68</v>
       </c>
@@ -2004,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>70</v>
       </c>
@@ -2021,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>74</v>
       </c>
@@ -2038,7 +2042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>76</v>
       </c>
@@ -2055,7 +2059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>80</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>82</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>86</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>88</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>92</v>
       </c>
@@ -2140,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>94</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>98</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>100</v>
       </c>
@@ -2191,7 +2195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>104</v>
       </c>
@@ -2208,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
       <c r="A36" s="14" t="s">
         <v>106</v>
       </c>
@@ -2225,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>110</v>
       </c>
@@ -2242,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
       <c r="A38" s="14" t="s">
         <v>112</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="14" t="s">
         <v>116</v>
       </c>
@@ -2276,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="14" t="s">
         <v>118</v>
       </c>
@@ -2293,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="14" t="s">
         <v>122</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
       <c r="A42" s="14" t="s">
         <v>124</v>
       </c>
@@ -2327,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>128</v>
       </c>
@@ -2344,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>130</v>
       </c>
@@ -2361,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>134</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>136</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
       <c r="A47" s="11" t="s">
         <v>140</v>
       </c>
@@ -2412,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>142</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" ht="14">
       <c r="A49" s="14" t="s">
         <v>146</v>
       </c>
@@ -2446,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" ht="14">
       <c r="A50" s="14" t="s">
         <v>148</v>
       </c>
@@ -2463,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" ht="14">
       <c r="A51" s="14" t="s">
         <v>152</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" ht="14">
       <c r="A52" s="14" t="s">
         <v>154</v>
       </c>
@@ -2497,7 +2501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" ht="14">
       <c r="A53" s="14" t="s">
         <v>158</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="14">
       <c r="A54" s="14" t="s">
         <v>160</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="14">
       <c r="A55" s="14" t="s">
         <v>164</v>
       </c>
@@ -2548,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" ht="14">
       <c r="A56" s="14" t="s">
         <v>166</v>
       </c>
@@ -2565,7 +2569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="14">
       <c r="A57" s="14" t="s">
         <v>170</v>
       </c>
@@ -2582,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="14">
       <c r="A58" s="14" t="s">
         <v>172</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" ht="14">
       <c r="A59" s="14" t="s">
         <v>176</v>
       </c>
@@ -2616,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" ht="14">
       <c r="A60" s="14" t="s">
         <v>178</v>
       </c>
@@ -2633,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" ht="14">
       <c r="A61" s="14" t="s">
         <v>182</v>
       </c>
@@ -2650,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="14">
       <c r="A62" s="14" t="s">
         <v>184</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" ht="14">
       <c r="A63" s="14" t="s">
         <v>188</v>
       </c>
@@ -2684,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" ht="14">
       <c r="A64" s="14" t="s">
         <v>190</v>
       </c>
@@ -2701,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" ht="14">
       <c r="A65" s="14" t="s">
         <v>194</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="14">
       <c r="A66" s="14" t="s">
         <v>196</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" ht="14">
       <c r="A67" s="14" t="s">
         <v>200</v>
       </c>
@@ -2752,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" ht="14">
       <c r="A68" s="14" t="s">
         <v>202</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="14">
       <c r="A69" s="14" t="s">
         <v>50</v>
       </c>
@@ -2786,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" ht="14">
       <c r="A70" s="14" t="s">
         <v>206</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" ht="14">
       <c r="A71" s="14" t="s">
         <v>210</v>
       </c>
@@ -2820,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" ht="14">
       <c r="A72" s="14" t="s">
         <v>212</v>
       </c>
@@ -2837,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" ht="14">
       <c r="A73" s="14" t="s">
         <v>216</v>
       </c>
@@ -2854,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" ht="14">
       <c r="A74" s="14" t="s">
         <v>218</v>
       </c>
@@ -2871,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" ht="14">
       <c r="A75" s="14" t="s">
         <v>222</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" ht="14">
       <c r="A76" s="14" t="s">
         <v>224</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="14">
       <c r="A77" s="14" t="s">
         <v>228</v>
       </c>
@@ -2922,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" ht="14">
       <c r="A78" s="14" t="s">
         <v>230</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="14">
       <c r="A79" s="14" t="s">
         <v>234</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" ht="14">
       <c r="A80" s="14" t="s">
         <v>236</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="14">
       <c r="A81" s="14" t="s">
         <v>240</v>
       </c>
@@ -2990,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" ht="15">
       <c r="A82" s="10" t="s">
         <v>242</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" ht="14">
       <c r="A83" s="14" t="s">
         <v>246</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" ht="14">
       <c r="A84" s="14" t="s">
         <v>248</v>
       </c>
@@ -3041,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" ht="14">
       <c r="A85" s="14" t="s">
         <v>252</v>
       </c>
@@ -3058,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="15">
       <c r="A86" s="10" t="s">
         <v>254</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" ht="14">
       <c r="A87" s="14" t="s">
         <v>258</v>
       </c>
@@ -3092,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" ht="14">
       <c r="A88" s="14" t="s">
         <v>260</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="14">
       <c r="A89" s="14" t="s">
         <v>264</v>
       </c>
@@ -3126,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" ht="14">
       <c r="A90" s="14" t="s">
         <v>266</v>
       </c>
@@ -3143,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" ht="14">
       <c r="A91" s="11" t="s">
         <v>270</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" ht="14">
       <c r="A92" s="14" t="s">
         <v>272</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" ht="14">
       <c r="A93" s="14" t="s">
         <v>276</v>
       </c>
@@ -3194,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" ht="14">
       <c r="A94" s="14" t="s">
         <v>278</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="14">
       <c r="A95" s="15" t="s">
         <v>282</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" ht="14">
       <c r="A96" s="14" t="s">
         <v>284</v>
       </c>
@@ -3245,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" ht="14">
       <c r="A97" s="14" t="s">
         <v>288</v>
       </c>
@@ -3262,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" ht="14">
       <c r="A98" s="14" t="s">
         <v>290</v>
       </c>
@@ -3279,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="14">
       <c r="A99" s="14" t="s">
         <v>294</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" ht="14">
       <c r="A100" s="14" t="s">
         <v>296</v>
       </c>
@@ -3313,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" ht="14">
       <c r="A101" s="11" t="s">
         <v>300</v>
       </c>
@@ -3330,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" ht="14">
       <c r="A102" s="14" t="s">
         <v>302</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" ht="14">
       <c r="A103" s="14" t="s">
         <v>306</v>
       </c>
@@ -3364,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" ht="14">
       <c r="A104" s="14" t="s">
         <v>308</v>
       </c>
@@ -3381,7 +3385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" ht="14">
       <c r="A105" s="14" t="s">
         <v>312</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" ht="14">
       <c r="A106" s="14" t="s">
         <v>315</v>
       </c>
@@ -3415,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" ht="14">
       <c r="A107" s="14" t="s">
         <v>319</v>
       </c>
@@ -3432,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" ht="14">
       <c r="A108" s="14" t="s">
         <v>321</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" ht="14">
       <c r="A109" s="14" t="s">
         <v>325</v>
       </c>
@@ -3466,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" ht="13">
       <c r="A110" s="14" t="s">
         <v>327</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" ht="13">
       <c r="A111" s="14" t="s">
         <v>331</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" ht="13">
       <c r="A112" s="14" t="s">
         <v>333</v>
       </c>
@@ -3517,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" ht="13">
       <c r="A113" s="14" t="s">
         <v>337</v>
       </c>
@@ -3534,7 +3538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" ht="13">
       <c r="A114" s="14" t="s">
         <v>340</v>
       </c>
@@ -3551,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" ht="13">
       <c r="A115" s="14" t="s">
         <v>344</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" ht="13">
       <c r="A116" s="14" t="s">
         <v>346</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" ht="13">
       <c r="A117" s="14" t="s">
         <v>350</v>
       </c>
@@ -3602,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" ht="13">
       <c r="A118" s="14" t="s">
         <v>352</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="13">
       <c r="A119" s="14" t="s">
         <v>356</v>
       </c>
@@ -3636,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" ht="13">
       <c r="A120" s="14" t="s">
         <v>358</v>
       </c>
@@ -3653,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" ht="13">
       <c r="A121" s="14" t="s">
         <v>362</v>
       </c>
@@ -3670,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" ht="13">
       <c r="A122" s="14" t="s">
         <v>364</v>
       </c>
@@ -3687,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" ht="13">
       <c r="A123" s="14" t="s">
         <v>368</v>
       </c>
